--- a/data/trans_camb/IMC_inf_MED_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IMC_inf_MED_R2-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-11,19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-29,49</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,08</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-11,19</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-29,82</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,28</t>
+          <t>-18,08</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 24,0</t>
+          <t>-31,34; 11,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,15; 24,52</t>
+          <t>-50,27; -2,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,97; 9,75</t>
+          <t>-21,74; 22,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,15; -1,43</t>
+          <t>-32,05; 25,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 9,02</t>
+          <t>-20,78; 8,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 1,37</t>
+          <t>-36,91; 0,36</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-19,19%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-50,57%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,15%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,76%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-19,19%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-51,13%</t>
+          <t>-5,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-32,44%</t>
+          <t>-32,08%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,47; 59,16</t>
+          <t>-47,78; 25,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,22; 60,49</t>
+          <t>-80,2; -3,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,57; 21,03</t>
+          <t>-34,17; 55,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-81,95; 0,08</t>
+          <t>-52,81; 55,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,22; 18,19</t>
+          <t>-33,0; 17,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,5; 2,59</t>
+          <t>-61,44; -0,43</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-12,1</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-8,26</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-13,25</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-12,88</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-12,1</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,55</t>
+          <t>-12,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,86</t>
+          <t>-9,85</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,73; -5,37</t>
+          <t>-20,28; -4,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,52; -1,41</t>
+          <t>-20,65; 4,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,33; -3,54</t>
+          <t>-20,85; -4,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,07; 2,65</t>
+          <t>-22,27; -0,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,97; -6,43</t>
+          <t>-18,52; -6,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,55; -1,88</t>
+          <t>-18,54; -2,08</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-23,67%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-16,16%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-21,07%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-20,49%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-23,67%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-18,69%</t>
+          <t>-19,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,96%</t>
+          <t>-17,19%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,31; -8,99</t>
+          <t>-36,36; -8,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,43; -2,61</t>
+          <t>-38,06; 8,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,02; -7,42</t>
+          <t>-31,98; -7,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 5,52</t>
+          <t>-34,45; -1,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,1; -11,93</t>
+          <t>-31,06; -11,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,08; -4,1</t>
+          <t>-31,43; -3,8</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-16,16</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-13,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-2,49</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-8,48</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-16,16</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-14,23</t>
+          <t>-9,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>-10,82</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 7,8</t>
+          <t>-25,89; -6,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 3,16</t>
+          <t>-25,44; -0,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,78; -6,52</t>
+          <t>-11,76; 7,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,27; -1,84</t>
+          <t>-21,09; 3,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,26; -2,11</t>
+          <t>-15,64; -2,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,19; -2,04</t>
+          <t>-19,07; -1,64</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-30,12%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-24,24%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-4,65%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-15,87%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-30,12%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-26,53%</t>
+          <t>-17,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-20,49%</t>
+          <t>-20,2%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 16,9</t>
+          <t>-44,32; -12,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,67; 6,14</t>
+          <t>-44,28; -0,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,53; -13,31</t>
+          <t>-20,14; 14,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,44; -3,72</t>
+          <t>-36,24; 8,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,35; -4,31</t>
+          <t>-27,34; -4,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,42; -3,69</t>
+          <t>-34,34; -3,48</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-2,58</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-13,53</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-9,28</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-9,98</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,58</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-12,16</t>
+          <t>-9,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,59</t>
+          <t>-11,57</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,98; -0,29</t>
+          <t>-11,37; 4,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 1,64</t>
+          <t>-23,42; -3,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 6,21</t>
+          <t>-18,11; -0,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,78; -3,38</t>
+          <t>-20,8; 1,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,08; -0,1</t>
+          <t>-12,28; 0,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,69; -3,59</t>
+          <t>-19,94; -2,7</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-9,56%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-50,07%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-22,42%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-24,11%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-9,56%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-44,97%</t>
+          <t>-23,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-30,86%</t>
+          <t>-33,69%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,24; -0,93</t>
+          <t>-36,52; 21,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,69; 4,46</t>
+          <t>-77,87; -13,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 27,93</t>
+          <t>-40,01; -1,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-67,92; -12,97</t>
+          <t>-46,37; 3,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,27; -0,2</t>
+          <t>-32,65; 0,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,82; -10,94</t>
+          <t>-54,83; -8,75</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-10,25</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-17,3</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>-8,33</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-12,72</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-10,25</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-16,33</t>
+          <t>-12,64</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-14,0</t>
+          <t>-14,48</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -3,43</t>
+          <t>-15,41; -5,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-18,68; -6,35</t>
+          <t>-27,4; -10,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,51; -5,28</t>
+          <t>-13,25; -3,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-21,54; -9,35</t>
+          <t>-18,8; -6,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,57; -5,83</t>
+          <t>-12,74; -5,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,38; -9,45</t>
+          <t>-20,54; -9,67</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-22,77%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-38,41%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>-15,51%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-23,7%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-22,77%</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-36,26%</t>
+          <t>-23,54%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-28,31%</t>
+          <t>-29,27%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-23,75; -6,23</t>
+          <t>-32,92; -12,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-33,56; -11,9</t>
+          <t>-60,09; -23,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-33,17; -12,43</t>
+          <t>-23,46; -6,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-46,59; -21,67</t>
+          <t>-33,79; -12,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-24,39; -12,18</t>
+          <t>-25,12; -11,73</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,69; -19,68</t>
+          <t>-41,25; -20,06</t>
         </is>
       </c>
     </row>
